--- a/app/public/excels/template/undergraduate.xlsx
+++ b/app/public/excels/template/undergraduate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>xsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,20 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,120 +448,123 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-      <c r="F23" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
